--- a/contratos_controle/modelos_excel/bms_medicao_fatura_periodo.xlsx
+++ b/contratos_controle/modelos_excel/bms_medicao_fatura_periodo.xlsx
@@ -74,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -142,7 +142,7 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,7 +150,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -166,7 +166,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -182,13 +182,13 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
